--- a/biology/Botanique/Olea_welwitschii/Olea_welwitschii.xlsx
+++ b/biology/Botanique/Olea_welwitschii/Olea_welwitschii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea welwitschii (Knobl.) Gilg &amp; Schellemb. est une espèce d'olivier appartenant au genre Olea. Il pousse en Afrique australe principalement où il est supposé être une espèce spontanée et indigène.
 </t>
@@ -513,15 +525,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Description du type
-Selon le travail de P.S. Green[2], la description du type botanique est publiée dans « Bot. Jahr. Syst. 51   : 76 (1913) ; Turrill dans Fl. Trop. E. Afr., Oleaceae 12 (1952) ; Liben in Fl. Afr. Centr., Oleaceae 24, t. 6 (1973). »
-Appareil végétatif
-C'est un arbre pouvant atteindre 35 m de hauteur. Les feuilles sont assez coriaces, les pétioles minces, de 1,7 à 4 cm de longueur. Le limbe est lancéolé à elliptique, parfois étroit, de (7 -)8 à 12(- 17) cm de longueur sur (2.5 -)3,5 à 5(- 6) cm de largeur, la base obtuse à aigüe, légèrement atténuée vers le pétiole, l'apex est long aigu-acuminé. Les nervures primaires sont au nombre de 7 à 9 de chaque côté de la nervure centrale, légèrement saillante au-dessus et en dessous, la nervuration est sombre.
-Appareil reproducteur
-Les inflorescences sont terminales, paniculées de (5 -)8 à 15 cm de longueur. Les fleurs sont nombreuses, les pédicelles mesurent 0,5 à 3 mm de longueur. Le calice mesure 1 mm de longueur, les lobes sont largement triangulaires, de 0,5 mm de longueur. La corolle est un tube de 1 mm de long, les lobes sont triangulaires-ovales, de 2 mm long, réfléchis à l'anthèse. Les étamines sont exsertées, les filaments mesurant 0,5 mm de long, les anthères sont ellipsoïdes, de 1 mm de long. L'ovaire est globuleux, mesurant 0,5 mm de longueur. Le style, y compris un stigmate ovoïde mesure 0,5 mm de long.
+          <t>Description du type</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le travail de P.S. Green, la description du type botanique est publiée dans « Bot. Jahr. Syst. 51   : 76 (1913) ; Turrill dans Fl. Trop. E. Afr., Oleaceae 12 (1952) ; Liben in Fl. Afr. Centr., Oleaceae 24, t. 6 (1973). »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pouvant atteindre 35 m de hauteur. Les feuilles sont assez coriaces, les pétioles minces, de 1,7 à 4 cm de longueur. Le limbe est lancéolé à elliptique, parfois étroit, de (7 -)8 à 12(- 17) cm de longueur sur (2.5 -)3,5 à 5(- 6) cm de largeur, la base obtuse à aigüe, légèrement atténuée vers le pétiole, l'apex est long aigu-acuminé. Les nervures primaires sont au nombre de 7 à 9 de chaque côté de la nervure centrale, légèrement saillante au-dessus et en dessous, la nervuration est sombre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont terminales, paniculées de (5 -)8 à 15 cm de longueur. Les fleurs sont nombreuses, les pédicelles mesurent 0,5 à 3 mm de longueur. Le calice mesure 1 mm de longueur, les lobes sont largement triangulaires, de 0,5 mm de longueur. La corolle est un tube de 1 mm de long, les lobes sont triangulaires-ovales, de 2 mm long, réfléchis à l'anthèse. Les étamines sont exsertées, les filaments mesurant 0,5 mm de long, les anthères sont ellipsoïdes, de 1 mm de long. L'ovaire est globuleux, mesurant 0,5 mm de longueur. Le style, y compris un stigmate ovoïde mesure 0,5 mm de long.
 Les fruits sont des drupes ovoïdes-ellipsoïdes mesurant 10 à 12 mm par 6 à 7 mm.
-Répartition
-Afrique :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Afrique :
 Afrique orientale tropicale :
 Kenya : forêt de Kakamega,
 Tanzanie : Kigoma distr., Monts de Mahali, Ujamba,
@@ -535,35 +657,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Olea_welwitschii</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Flora Zambeziaca, Olea welwitschii serait un synonyme d'Olea capensis L.. La révision du genre Olea par P.S. Green (2002) en fait un taxon bien délimité, à part entière.
-Synonymes botaniques
-Mayapea welwitschii Knobl., Bot. Jarhb. Syst. 17:530 (1893). Type Angola, Welwitsch 945 (B, †; isotype BM).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Flora Zambeziaca, Olea welwitschii serait un synonyme d'Olea capensis L.. La révision du genre Olea par P.S. Green (2002) en fait un taxon bien délimité, à part entière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes botaniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mayapea welwitschii Knobl., Bot. Jarhb. Syst. 17:530 (1893). Type Angola, Welwitsch 945 (B, †; isotype BM).
 Linociera welwitschii (Knobl.) Baker in Fl. Trop. Afr. 4:20 (1902).
 Osmanthus welwitschii (Knobl.) Knobl., Notizbl. Bot. Gart. Berlin-Dahlem 11:1031 (1934).
 Steganthus welwitschii (Knobl.) Knobl., Notizbl. Bot. Gart. Berlin-Dahlem 12:116 (1936).
@@ -572,57 +731,61 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olea_welwitschii</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Olea_welwitschii</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_welwitschii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
